--- a/analysis/metadata/P17_1/P17_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P17_1/P17_1_minimal_metadata.xlsx
@@ -15336,10 +15336,10 @@
         </is>
       </c>
       <c r="C212">
-        <v>57.254</v>
+        <v>57.2483</v>
       </c>
       <c r="D212">
-        <v>10.9993</v>
+        <v>11.0215</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -31794,10 +31794,10 @@
         </is>
       </c>
       <c r="C443">
-        <v>54.9824</v>
+        <v>54.9895</v>
       </c>
       <c r="D443">
-        <v>12.5259</v>
+        <v>12.5385</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
